--- a/data/nak/수질/상주2_2019.xlsx
+++ b/data/nak/수질/상주2_2019.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\nak\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="122">
   <si>
     <t>dt</t>
   </si>
@@ -378,131 +385,36 @@
   </si>
   <si>
     <t>20190702</t>
-  </si>
-  <si>
-    <t>2019-07-12 12:00</t>
-  </si>
-  <si>
-    <t>20190708</t>
-  </si>
-  <si>
-    <t>2019-07-18 12:00</t>
-  </si>
-  <si>
-    <t>20190716</t>
-  </si>
-  <si>
-    <t>2019-07-24 12:00</t>
-  </si>
-  <si>
-    <t>20190722</t>
-  </si>
-  <si>
-    <t>2019-08-10 12:00</t>
-  </si>
-  <si>
-    <t>20190819</t>
-  </si>
-  <si>
-    <t>2019-08-20 12:00</t>
-  </si>
-  <si>
-    <t>20190827</t>
-  </si>
-  <si>
-    <t>2019-09-08 12:00</t>
-  </si>
-  <si>
-    <t>20190902</t>
-  </si>
-  <si>
-    <t>2019-09-16 12:00</t>
-  </si>
-  <si>
-    <t>20190917</t>
-  </si>
-  <si>
-    <t>2019-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20190923</t>
-  </si>
-  <si>
-    <t>2019-10-08 12:00</t>
-  </si>
-  <si>
-    <t>20191008</t>
-  </si>
-  <si>
-    <t>2019-10-16 12:00</t>
-  </si>
-  <si>
-    <t>20191014</t>
-  </si>
-  <si>
-    <t>2019-10-24 12:00</t>
-  </si>
-  <si>
-    <t>20191022</t>
-  </si>
-  <si>
-    <t>2019-11-06 12:00</t>
-  </si>
-  <si>
-    <t>20191105</t>
-  </si>
-  <si>
-    <t>2019-11-12 12:00</t>
-  </si>
-  <si>
-    <t>20191111</t>
-  </si>
-  <si>
-    <t>2019-11-18 12:00</t>
-  </si>
-  <si>
-    <t>20191119</t>
-  </si>
-  <si>
-    <t>2019-11-24 12:00</t>
-  </si>
-  <si>
-    <t>20191125</t>
-  </si>
-  <si>
-    <t>2019-12-10 12:00</t>
-  </si>
-  <si>
-    <t>20191203</t>
-  </si>
-  <si>
-    <t>2019-12-20 12:00</t>
-  </si>
-  <si>
-    <t>20191209</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -520,7 +432,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -528,16 +446,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -546,10 +472,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -795,83 +721,79 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.86" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.71" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.86" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.57" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.43" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1136,7 +1058,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD2" s="3">
         <v>2.8239999999999998</v>
@@ -1145,7 +1067,7 @@
         <v>7.5</v>
       </c>
       <c r="AF2" s="4">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AG2">
         <v>263</v>
@@ -1163,10 +1085,10 @@
         <v>3.2589999999999999</v>
       </c>
       <c r="AL2" s="3">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN2" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AO2" s="4">
         <v>15.9</v>
@@ -1178,13 +1100,13 @@
         <v>3.1549999999999998</v>
       </c>
       <c r="AR2" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1261,13 +1183,13 @@
         <v>81</v>
       </c>
       <c r="AC3" s="3">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AD3" s="3">
         <v>2.8119999999999998</v>
       </c>
       <c r="AE3" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF3">
         <v>4</v>
@@ -1276,10 +1198,10 @@
         <v>252</v>
       </c>
       <c r="AH3" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI3" s="4">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="AJ3" s="4">
         <v>14.6</v>
@@ -1288,13 +1210,13 @@
         <v>3.1869999999999998</v>
       </c>
       <c r="AL3" s="3">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AN3" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" s="4">
-        <v>25.899999999999999</v>
+        <v>25.9</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -1303,10 +1225,10 @@
         <v>3.1640000000000001</v>
       </c>
       <c r="AR3" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1383,7 +1305,7 @@
         <v>83</v>
       </c>
       <c r="AC4" s="3">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AD4" s="3">
         <v>2.5409999999999999</v>
@@ -1401,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="4">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AJ4" s="4">
         <v>15.1</v>
@@ -1410,13 +1332,13 @@
         <v>2.7730000000000001</v>
       </c>
       <c r="AL4" s="3">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AN4">
         <v>4</v>
       </c>
       <c r="AO4" s="4">
-        <v>48.799999999999997</v>
+        <v>48.8</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1425,13 +1347,13 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="AR4" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS4" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1508,13 +1430,13 @@
         <v>85</v>
       </c>
       <c r="AC5" s="3">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD5" s="3">
         <v>2.2770000000000001</v>
       </c>
       <c r="AE5" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF5" s="4">
         <v>5.0999999999999996</v>
@@ -1526,22 +1448,22 @@
         <v>1.8</v>
       </c>
       <c r="AI5" s="4">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AJ5" s="4">
-        <v>15.699999999999999</v>
+        <v>15.7</v>
       </c>
       <c r="AK5" s="3">
         <v>2.7480000000000002</v>
       </c>
       <c r="AL5" s="3">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AN5">
         <v>4</v>
       </c>
       <c r="AO5" s="4">
-        <v>34.899999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1550,10 +1472,10 @@
         <v>2.7410000000000001</v>
       </c>
       <c r="AR5" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1630,13 +1552,13 @@
         <v>88</v>
       </c>
       <c r="AC6" s="3">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AD6" s="3">
         <v>2.8220000000000001</v>
       </c>
       <c r="AE6" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF6" s="4">
         <v>5.0999999999999996</v>
@@ -1645,22 +1567,22 @@
         <v>264</v>
       </c>
       <c r="AH6" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AI6" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="AJ6" s="4">
-        <v>15.300000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="AK6" s="3">
         <v>3.5129999999999999</v>
       </c>
       <c r="AL6" s="3">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AN6" s="4">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="AO6">
         <v>36</v>
@@ -1672,10 +1594,10 @@
         <v>3.5</v>
       </c>
       <c r="AR6" s="3">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1752,7 +1674,7 @@
         <v>90</v>
       </c>
       <c r="AC7" s="3">
-        <v>0.066000000000000003</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AD7" s="3">
         <v>2.9350000000000001</v>
@@ -1761,31 +1683,31 @@
         <v>7.5</v>
       </c>
       <c r="AF7" s="4">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AG7">
         <v>257</v>
       </c>
       <c r="AH7" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AI7" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AJ7" s="4">
-        <v>13.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="AK7" s="3">
         <v>3.3380000000000001</v>
       </c>
       <c r="AL7" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AN7" s="4">
         <v>10.5</v>
       </c>
       <c r="AO7" s="4">
-        <v>22.199999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -1794,10 +1716,10 @@
         <v>3.331</v>
       </c>
       <c r="AR7" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1874,7 +1796,7 @@
         <v>92</v>
       </c>
       <c r="AC8" s="3">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD8" s="3">
         <v>2.2280000000000002</v>
@@ -1892,7 +1814,7 @@
         <v>1.8</v>
       </c>
       <c r="AI8" s="4">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AJ8">
         <v>13</v>
@@ -1901,13 +1823,13 @@
         <v>2.6030000000000002</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AN8" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="AO8" s="4">
-        <v>22.699999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -1916,13 +1838,13 @@
         <v>2.601</v>
       </c>
       <c r="AR8" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS8" s="4">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1999,25 +1921,25 @@
         <v>94</v>
       </c>
       <c r="AC9" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD9" s="3">
         <v>1.845</v>
       </c>
       <c r="AE9" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF9" s="4">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AG9">
         <v>232</v>
       </c>
       <c r="AH9" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AI9" s="4">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AJ9" s="4">
         <v>13.4</v>
@@ -2026,13 +1948,13 @@
         <v>2.258</v>
       </c>
       <c r="AL9" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AN9">
         <v>11</v>
       </c>
       <c r="AO9" s="4">
-        <v>17.800000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2041,10 +1963,10 @@
         <v>2.2389999999999999</v>
       </c>
       <c r="AR9" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -2121,13 +2043,13 @@
         <v>97</v>
       </c>
       <c r="AC10" s="3">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD10" s="3">
         <v>1.8759999999999999</v>
       </c>
       <c r="AE10" s="4">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF10" s="4">
         <v>4.5</v>
@@ -2139,16 +2061,16 @@
         <v>1.5</v>
       </c>
       <c r="AI10" s="4">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AJ10" s="4">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK10" s="3">
         <v>2.1989999999999998</v>
       </c>
       <c r="AL10" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN10" s="4">
         <v>10.9</v>
@@ -2160,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="5">
-        <v>2.1899999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="AR10" s="3">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2243,16 +2165,16 @@
         <v>99</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD11" s="3">
         <v>1.9610000000000001</v>
       </c>
       <c r="AE11" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF11" s="4">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AG11">
         <v>250</v>
@@ -2261,22 +2183,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AI11" s="4">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AJ11" s="4">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AK11" s="3">
         <v>2.3730000000000002</v>
       </c>
       <c r="AL11" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN11" s="4">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AO11" s="4">
-        <v>16.199999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2285,10 +2207,10 @@
         <v>2.3679999999999999</v>
       </c>
       <c r="AR11" s="3">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -2365,7 +2287,7 @@
         <v>101</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD12" s="3">
         <v>1.8380000000000001</v>
@@ -2383,16 +2305,16 @@
         <v>1.8</v>
       </c>
       <c r="AI12" s="4">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="AJ12" s="4">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AK12" s="3">
         <v>2.3769999999999998</v>
       </c>
       <c r="AL12" s="3">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN12">
         <v>13</v>
@@ -2401,19 +2323,19 @@
         <v>15.5</v>
       </c>
       <c r="AP12" s="3">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ12" s="3">
         <v>2.371</v>
       </c>
       <c r="AR12" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS12" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -2505,19 +2427,19 @@
         <v>238</v>
       </c>
       <c r="AH13" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AI13" s="4">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ13" s="4">
-        <v>11.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AK13" s="3">
         <v>2.1110000000000002</v>
       </c>
       <c r="AL13" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AN13">
         <v>15</v>
@@ -2532,10 +2454,10 @@
         <v>2.1080000000000001</v>
       </c>
       <c r="AR13" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -2612,13 +2534,13 @@
         <v>105</v>
       </c>
       <c r="AC14" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD14" s="3">
         <v>1.6479999999999999</v>
       </c>
       <c r="AE14" s="4">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF14" s="4">
         <v>4.5999999999999996</v>
@@ -2627,37 +2549,37 @@
         <v>233</v>
       </c>
       <c r="AH14" s="4">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AI14">
         <v>4</v>
       </c>
       <c r="AJ14" s="4">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AK14" s="3">
         <v>2.173</v>
       </c>
       <c r="AL14" s="3">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AN14">
         <v>18</v>
       </c>
       <c r="AO14" s="4">
-        <v>20.199999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14" s="5">
-        <v>2.1600000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="AR14" s="3">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -2734,7 +2656,7 @@
         <v>107</v>
       </c>
       <c r="AC15" s="3">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD15" s="3">
         <v>1.3440000000000001</v>
@@ -2749,25 +2671,25 @@
         <v>212</v>
       </c>
       <c r="AH15" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AI15" s="4">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AJ15" s="4">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AK15" s="3">
         <v>2.0259999999999998</v>
       </c>
       <c r="AL15" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN15" s="4">
-        <v>18.300000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="AO15" s="4">
-        <v>16.800000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -2779,7 +2701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2856,7 +2778,7 @@
         <v>109</v>
       </c>
       <c r="AC16" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AD16" s="3">
         <v>1.1259999999999999</v>
@@ -2865,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="AF16" s="4">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AG16">
         <v>240</v>
@@ -2883,10 +2805,10 @@
         <v>1.821</v>
       </c>
       <c r="AL16" s="3">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AN16" s="4">
-        <v>22.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="AO16" s="4">
         <v>6.5</v>
@@ -2898,13 +2820,13 @@
         <v>1.6539999999999999</v>
       </c>
       <c r="AR16" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AS16" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2987,7 +2909,7 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="AE17" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF17" s="4">
         <v>5.0999999999999996</v>
@@ -2999,7 +2921,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AI17" s="4">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AJ17" s="4">
         <v>10.199999999999999</v>
@@ -3008,25 +2930,25 @@
         <v>1.9790000000000001</v>
       </c>
       <c r="AL17" s="3">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AN17" s="4">
-        <v>22.199999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="AO17" s="4">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AP17" s="3">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ17" s="3">
         <v>1.8129999999999999</v>
       </c>
       <c r="AR17" s="3">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3109,28 +3031,28 @@
         <v>1.103</v>
       </c>
       <c r="AE18" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF18" s="4">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AG18">
         <v>247</v>
       </c>
       <c r="AH18" s="4">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI18">
         <v>11</v>
       </c>
       <c r="AJ18" s="4">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="AK18" s="3">
         <v>2.0649999999999999</v>
       </c>
       <c r="AL18" s="3">
-        <v>0.049000000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AN18" s="4">
         <v>21.5</v>
@@ -3139,16 +3061,16 @@
         <v>17.5</v>
       </c>
       <c r="AP18" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ18" s="3">
         <v>1.7470000000000001</v>
       </c>
       <c r="AR18" s="3">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -3225,7 +3147,7 @@
         <v>115</v>
       </c>
       <c r="AC19" s="3">
-        <v>0.057000000000000002</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AD19" s="3">
         <v>0.89300000000000002</v>
@@ -3246,16 +3168,16 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AJ19" s="4">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AK19" s="5">
         <v>1.72</v>
       </c>
       <c r="AL19" s="3">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AN19" s="4">
-        <v>23.300000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="AO19" s="4">
         <v>33.700000000000003</v>
@@ -3267,13 +3189,13 @@
         <v>1.6220000000000001</v>
       </c>
       <c r="AR19" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AS19" s="4">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3350,7 +3272,7 @@
         <v>117</v>
       </c>
       <c r="AC20" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD20" s="3">
         <v>1.0760000000000001</v>
@@ -3365,10 +3287,10 @@
         <v>236</v>
       </c>
       <c r="AH20" s="4">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AI20" s="4">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AJ20" s="4">
         <v>9.1999999999999993</v>
@@ -3377,25 +3299,25 @@
         <v>1.665</v>
       </c>
       <c r="AL20" s="3">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AN20">
         <v>25</v>
       </c>
       <c r="AO20" s="4">
-        <v>17.699999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="AP20" s="3">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="3">
         <v>1.4910000000000001</v>
       </c>
       <c r="AR20" s="3">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -3472,22 +3394,22 @@
         <v>119</v>
       </c>
       <c r="AC21" s="3">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD21" s="3">
         <v>0.72299999999999998</v>
       </c>
       <c r="AE21" s="4">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="AF21" s="4">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="AG21">
         <v>230</v>
       </c>
       <c r="AH21" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI21" s="4">
         <v>4.4000000000000004</v>
@@ -3499,7 +3421,7 @@
         <v>1.4990000000000001</v>
       </c>
       <c r="AL21" s="3">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AN21" s="4">
         <v>26.5</v>
@@ -3514,10 +3436,10 @@
         <v>1.204</v>
       </c>
       <c r="AR21" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3594,7 +3516,7 @@
         <v>121</v>
       </c>
       <c r="AC22" s="3">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AD22" s="5">
         <v>0.88</v>
@@ -3603,16 +3525,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AF22" s="4">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AG22">
         <v>225</v>
       </c>
       <c r="AH22" s="4">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AI22" s="4">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AJ22">
         <v>11</v>
@@ -3621,13 +3543,13 @@
         <v>1.579</v>
       </c>
       <c r="AL22" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AN22" s="4">
-        <v>26.699999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="AO22" s="4">
-        <v>23.199999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -3636,2102 +3558,12 @@
         <v>1.2829999999999999</v>
       </c>
       <c r="AR22" s="3">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s">
-        <v>68</v>
-      </c>
-      <c r="W23" t="s">
-        <v>69</v>
-      </c>
-      <c r="X23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0.042000000000000003</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0.754</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG23">
-        <v>249</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>2.016</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>0.033000000000000002</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>26.600000000000001</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>1.849</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>0.012</v>
-      </c>
-      <c r="AS23" s="4">
-        <v>3.8999999999999999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>71</v>
-      </c>
-      <c r="R24" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s">
-        <v>68</v>
-      </c>
-      <c r="W24" t="s">
-        <v>69</v>
-      </c>
-      <c r="X24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0.023</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG24">
-        <v>232</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="AJ24" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="AK24" s="5">
-        <v>1.6299999999999999</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>0.023</v>
-      </c>
-      <c r="AN24" s="4">
-        <v>28.699999999999999</v>
-      </c>
-      <c r="AO24" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>0.0030000000000000001</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="AR24" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W25" t="s">
-        <v>69</v>
-      </c>
-      <c r="X25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0.071999999999999995</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AG25">
-        <v>212</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="AJ25" s="4">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>2.0209999999999999</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>0.039</v>
-      </c>
-      <c r="AN25" s="4">
-        <v>24.699999999999999</v>
-      </c>
-      <c r="AO25" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="AQ25" s="3">
-        <v>1.619</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>0.036999999999999998</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26" t="s">
-        <v>72</v>
-      </c>
-      <c r="S26" t="s">
-        <v>73</v>
-      </c>
-      <c r="T26" t="s">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W26" t="s">
-        <v>69</v>
-      </c>
-      <c r="X26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0.087999999999999995</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG26">
-        <v>229</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="AJ26" s="4">
-        <v>9.0999999999999996</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>0.035000000000000003</v>
-      </c>
-      <c r="AN26" s="4">
-        <v>29.699999999999999</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>17.199999999999999</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>1.196</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>0.021999999999999999</v>
-      </c>
-      <c r="AS26" s="4">
-        <v>3.2999999999999998</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" t="s">
-        <v>68</v>
-      </c>
-      <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" t="s">
-        <v>73</v>
-      </c>
-      <c r="T27" t="s">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s">
-        <v>75</v>
-      </c>
-      <c r="V27" t="s">
-        <v>68</v>
-      </c>
-      <c r="W27" t="s">
-        <v>69</v>
-      </c>
-      <c r="X27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0.034000000000000002</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="AE27" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AF27">
-        <v>5</v>
-      </c>
-      <c r="AG27">
-        <v>228</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="AI27">
-        <v>5</v>
-      </c>
-      <c r="AJ27">
-        <v>9</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>1.264</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>0.045999999999999999</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>26.100000000000001</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>0.0030000000000000001</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>0.025000000000000001</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" t="s">
-        <v>72</v>
-      </c>
-      <c r="S28" t="s">
-        <v>73</v>
-      </c>
-      <c r="T28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s">
-        <v>75</v>
-      </c>
-      <c r="V28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" t="s">
-        <v>69</v>
-      </c>
-      <c r="X28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0.056000000000000001</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AF28">
-        <v>6</v>
-      </c>
-      <c r="AG28">
-        <v>237</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>3.2999999999999998</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>1.169</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>0.044999999999999998</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>24.800000000000001</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>52.600000000000001</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>0.0040000000000000001</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>1.069</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>0.024</v>
-      </c>
-      <c r="AS28" s="4">
-        <v>4.2000000000000002</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>71</v>
-      </c>
-      <c r="R29" t="s">
-        <v>72</v>
-      </c>
-      <c r="S29" t="s">
-        <v>73</v>
-      </c>
-      <c r="T29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s">
-        <v>75</v>
-      </c>
-      <c r="V29" t="s">
-        <v>68</v>
-      </c>
-      <c r="W29" t="s">
-        <v>69</v>
-      </c>
-      <c r="X29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0.036999999999999998</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AG29">
-        <v>229</v>
-      </c>
-      <c r="AH29" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="AJ29" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>0.035999999999999997</v>
-      </c>
-      <c r="AN29" s="4">
-        <v>26.399999999999999</v>
-      </c>
-      <c r="AO29" s="4">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>1.165</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>0.025000000000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F30" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>71</v>
-      </c>
-      <c r="R30" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" t="s">
-        <v>73</v>
-      </c>
-      <c r="T30" t="s">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s">
-        <v>75</v>
-      </c>
-      <c r="V30" t="s">
-        <v>68</v>
-      </c>
-      <c r="W30" t="s">
-        <v>69</v>
-      </c>
-      <c r="X30" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="AE30">
-        <v>7</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AG30">
-        <v>166</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="AJ30">
-        <v>9</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="AN30">
-        <v>19</v>
-      </c>
-      <c r="AO30" s="4">
-        <v>5.9000000000000004</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>0.087999999999999995</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>2.145</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>0.088999999999999996</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F31" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>71</v>
-      </c>
-      <c r="R31" t="s">
-        <v>72</v>
-      </c>
-      <c r="S31" t="s">
-        <v>73</v>
-      </c>
-      <c r="T31" t="s">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s">
-        <v>75</v>
-      </c>
-      <c r="V31" t="s">
-        <v>68</v>
-      </c>
-      <c r="W31" t="s">
-        <v>69</v>
-      </c>
-      <c r="X31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0.037999999999999999</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="AE31" s="4">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AF31" s="4">
-        <v>5.9000000000000004</v>
-      </c>
-      <c r="AG31">
-        <v>176</v>
-      </c>
-      <c r="AH31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AI31">
-        <v>9</v>
-      </c>
-      <c r="AJ31">
-        <v>9</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>3.2530000000000001</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>0.067000000000000004</v>
-      </c>
-      <c r="AN31" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="AO31" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>0.058000000000000003</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>3.2149999999999999</v>
-      </c>
-      <c r="AR31" s="3">
-        <v>0.065000000000000002</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F32" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>71</v>
-      </c>
-      <c r="R32" t="s">
-        <v>72</v>
-      </c>
-      <c r="S32" t="s">
-        <v>73</v>
-      </c>
-      <c r="T32" t="s">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s">
-        <v>68</v>
-      </c>
-      <c r="W32" t="s">
-        <v>69</v>
-      </c>
-      <c r="X32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0.048000000000000001</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>2.7610000000000001</v>
-      </c>
-      <c r="AE32" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF32" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AG32">
-        <v>225</v>
-      </c>
-      <c r="AH32" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI32" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AJ32" s="4">
-        <v>10.800000000000001</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>3.8340000000000001</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>0.037999999999999999</v>
-      </c>
-      <c r="AN32" s="4">
-        <v>19.699999999999999</v>
-      </c>
-      <c r="AO32" s="4">
-        <v>32.899999999999999</v>
-      </c>
-      <c r="AP32" s="3">
-        <v>0.0040000000000000001</v>
-      </c>
-      <c r="AQ32" s="3">
-        <v>3.3530000000000002</v>
-      </c>
-      <c r="AR32" s="3">
-        <v>0.028000000000000001</v>
-      </c>
-      <c r="AS32" s="4">
-        <v>3.8999999999999999</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F33" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" t="s">
-        <v>67</v>
-      </c>
-      <c r="N33" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>71</v>
-      </c>
-      <c r="R33" t="s">
-        <v>72</v>
-      </c>
-      <c r="S33" t="s">
-        <v>73</v>
-      </c>
-      <c r="T33" t="s">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s">
-        <v>75</v>
-      </c>
-      <c r="V33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W33" t="s">
-        <v>69</v>
-      </c>
-      <c r="X33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0.012999999999999999</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>2.2240000000000002</v>
-      </c>
-      <c r="AE33" s="4">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="AG33">
-        <v>227</v>
-      </c>
-      <c r="AH33">
-        <v>2</v>
-      </c>
-      <c r="AI33">
-        <v>7</v>
-      </c>
-      <c r="AJ33" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>0.035000000000000003</v>
-      </c>
-      <c r="AN33" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="AO33" s="4">
-        <v>25.600000000000001</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="3">
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="AR33" s="3">
-        <v>0.021000000000000001</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F34" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O34" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>71</v>
-      </c>
-      <c r="R34" t="s">
-        <v>72</v>
-      </c>
-      <c r="S34" t="s">
-        <v>73</v>
-      </c>
-      <c r="T34" t="s">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s">
-        <v>75</v>
-      </c>
-      <c r="V34" t="s">
-        <v>68</v>
-      </c>
-      <c r="W34" t="s">
-        <v>69</v>
-      </c>
-      <c r="X34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>0.025999999999999999</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="AE34">
-        <v>8</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>6.2000000000000002</v>
-      </c>
-      <c r="AG34">
-        <v>186</v>
-      </c>
-      <c r="AH34" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="AI34">
-        <v>10</v>
-      </c>
-      <c r="AJ34" s="4">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>1.954</v>
-      </c>
-      <c r="AL34" s="3">
-        <v>0.042999999999999997</v>
-      </c>
-      <c r="AN34" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="AO34" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="AP34" s="3">
-        <v>0.017000000000000001</v>
-      </c>
-      <c r="AQ34" s="3">
-        <v>1.881</v>
-      </c>
-      <c r="AR34" s="3">
-        <v>0.028000000000000001</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R35" t="s">
-        <v>72</v>
-      </c>
-      <c r="S35" t="s">
-        <v>73</v>
-      </c>
-      <c r="T35" t="s">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s">
-        <v>75</v>
-      </c>
-      <c r="V35" t="s">
-        <v>68</v>
-      </c>
-      <c r="W35" t="s">
-        <v>69</v>
-      </c>
-      <c r="X35" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="AE35" s="4">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="AF35" s="4">
-        <v>5.9000000000000004</v>
-      </c>
-      <c r="AG35">
-        <v>194</v>
-      </c>
-      <c r="AH35" s="4">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="AI35" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="AJ35">
-        <v>10</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="AL35" s="5">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="AN35" s="4">
-        <v>13.800000000000001</v>
-      </c>
-      <c r="AO35" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AP35" s="3">
-        <v>0.012</v>
-      </c>
-      <c r="AQ35" s="3">
-        <v>1.8049999999999999</v>
-      </c>
-      <c r="AR35" s="3">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="AS35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>71</v>
-      </c>
-      <c r="R36" t="s">
-        <v>72</v>
-      </c>
-      <c r="S36" t="s">
-        <v>73</v>
-      </c>
-      <c r="T36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s">
-        <v>75</v>
-      </c>
-      <c r="V36" t="s">
-        <v>68</v>
-      </c>
-      <c r="W36" t="s">
-        <v>69</v>
-      </c>
-      <c r="X36" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0.023</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>1.885</v>
-      </c>
-      <c r="AE36">
-        <v>8</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AG36">
-        <v>232</v>
-      </c>
-      <c r="AH36" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="AI36">
-        <v>6</v>
-      </c>
-      <c r="AJ36">
-        <v>11</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>0.023</v>
-      </c>
-      <c r="AN36" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="AO36" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AP36" s="3">
-        <v>0.0030000000000000001</v>
-      </c>
-      <c r="AQ36" s="3">
-        <v>2.0569999999999999</v>
-      </c>
-      <c r="AR36" s="3">
-        <v>0.014999999999999999</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" t="s">
-        <v>68</v>
-      </c>
-      <c r="O37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>71</v>
-      </c>
-      <c r="R37" t="s">
-        <v>72</v>
-      </c>
-      <c r="S37" t="s">
-        <v>73</v>
-      </c>
-      <c r="T37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s">
-        <v>75</v>
-      </c>
-      <c r="V37" t="s">
-        <v>68</v>
-      </c>
-      <c r="W37" t="s">
-        <v>69</v>
-      </c>
-      <c r="X37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>0.016</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>2.109</v>
-      </c>
-      <c r="AE37" s="4">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AF37" s="4">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="AG37">
-        <v>252</v>
-      </c>
-      <c r="AH37" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI37" s="4">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AJ37" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>2.3969999999999998</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>0.019</v>
-      </c>
-      <c r="AN37">
-        <v>9</v>
-      </c>
-      <c r="AO37" s="4">
-        <v>13.699999999999999</v>
-      </c>
-      <c r="AP37" s="3">
-        <v>0.0030000000000000001</v>
-      </c>
-      <c r="AQ37" s="5">
-        <v>2.3700000000000001</v>
-      </c>
-      <c r="AR37" s="3">
-        <v>0.012999999999999999</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F38" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" t="s">
-        <v>67</v>
-      </c>
-      <c r="N38" t="s">
-        <v>68</v>
-      </c>
-      <c r="O38" t="s">
-        <v>69</v>
-      </c>
-      <c r="P38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>71</v>
-      </c>
-      <c r="R38" t="s">
-        <v>72</v>
-      </c>
-      <c r="S38" t="s">
-        <v>73</v>
-      </c>
-      <c r="T38" t="s">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s">
-        <v>75</v>
-      </c>
-      <c r="V38" t="s">
-        <v>68</v>
-      </c>
-      <c r="W38" t="s">
-        <v>69</v>
-      </c>
-      <c r="X38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>0.012999999999999999</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>2.2559999999999998</v>
-      </c>
-      <c r="AE38" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="AG38">
-        <v>248</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="AI38" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AJ38" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="AK38" s="5">
-        <v>2.6299999999999999</v>
-      </c>
-      <c r="AL38" s="3">
-        <v>0.019</v>
-      </c>
-      <c r="AN38" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AO38" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="3">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="AR38" s="3">
-        <v>0.012999999999999999</v>
-      </c>
-      <c r="AS38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="2">
-        <v>36.400660999999999</v>
-      </c>
-      <c r="F39" s="2">
-        <v>128.30723800000001</v>
-      </c>
-      <c r="G39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" t="s">
-        <v>67</v>
-      </c>
-      <c r="N39" t="s">
-        <v>68</v>
-      </c>
-      <c r="O39" t="s">
-        <v>69</v>
-      </c>
-      <c r="P39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>71</v>
-      </c>
-      <c r="R39" t="s">
-        <v>72</v>
-      </c>
-      <c r="S39" t="s">
-        <v>73</v>
-      </c>
-      <c r="T39" t="s">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s">
-        <v>75</v>
-      </c>
-      <c r="V39" t="s">
-        <v>68</v>
-      </c>
-      <c r="W39" t="s">
-        <v>69</v>
-      </c>
-      <c r="X39" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>0.017000000000000001</v>
-      </c>
-      <c r="AD39" s="3">
-        <v>2.052</v>
-      </c>
-      <c r="AE39">
-        <v>8</v>
-      </c>
-      <c r="AF39">
-        <v>4</v>
-      </c>
-      <c r="AG39">
-        <v>251</v>
-      </c>
-      <c r="AH39" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="AI39" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AJ39" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="AK39" s="3">
-        <v>2.5259999999999998</v>
-      </c>
-      <c r="AL39" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="AN39" s="4">
-        <v>6.2999999999999998</v>
-      </c>
-      <c r="AO39" s="4">
-        <v>17.300000000000001</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="3">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="AR39" s="3">
-        <v>0.014999999999999999</v>
-      </c>
-    </row>
-    <row r="40"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>